--- a/Team_Member_Activities.xlsx
+++ b/Team_Member_Activities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Assignments for this week</t>
   </si>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t>Work on the next roadmap item.</t>
+  </si>
+  <si>
+    <t>Rachit</t>
+  </si>
+  <si>
+    <t>Test Work</t>
+  </si>
+  <si>
+    <t>Test Comment</t>
   </si>
 </sst>
 </file>
@@ -591,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,6 +732,17 @@
       </c>
       <c r="C11" s="7" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Team_Member_Activities.xlsx
+++ b/Team_Member_Activities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Assignments for this week</t>
   </si>
@@ -205,10 +205,7 @@
     <t>Rachit</t>
   </si>
   <si>
-    <t>Test Work</t>
-  </si>
-  <si>
-    <t>Test Comment</t>
+    <t>Working on testing Teevra Core on GitHub</t>
   </si>
 </sst>
 </file>
@@ -603,7 +600,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,15 +731,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
